--- a/Stone/stone-manager/src/main/webapp/resource/inlandcustomertemplate.xlsx
+++ b/Stone/stone-manager/src/main/webapp/resource/inlandcustomertemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
+    <workbookView windowWidth="19095" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="名片整理" sheetId="1" r:id="rId1"/>
@@ -14,957 +14,722 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">名片整理!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>座机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     注：多个手机用"/"分隔</t>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhenshihui@xmzsh.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>329838148@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zoey@art-decoexpo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wzctym@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>import@xmjb.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xinhongsujiao@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lewishuang2@aliyun.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>244069726@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>277252276@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>654986476@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15026528444@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nhe@revastone.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alice@goodzlogistics.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1131106060@pa18.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>csta930@mail.xcs.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>624789590@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dai@grandercn.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>493190737@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2535445477@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dishui1234@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15060313375@139.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>noho668@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1819183358@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xhfsy2008@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>244220828@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yeyonger98@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>644766496@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yangy-fj@yunyuan.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhoubj@xmklm.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales5@westfield-xm.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114119182@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>363531238@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2855719569@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>652016503@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2948509576@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>matin@vswheels.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales09@tridexp.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13358371288@189.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grace_xmm@uif.com.hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>emp_xmn@nif.com.hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>packing@public.xm.fj.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wangzd@xmbangxin.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vissea@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3264291076@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>allen.guo@hilton.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>online@leadshows.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lqj005@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>info@displayrackstand.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>353664211@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sallyshan1992@yahoo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lijun@smoothdt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qwfjzf@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1140197945@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kelvin.cai@foundsbag.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>760987510@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stonejy@stonejy.com</t>
+  </si>
+  <si>
+    <t>ryan.wu@byt-xmn.com</t>
+  </si>
+  <si>
+    <t>mandy@gowinstone.com</t>
+  </si>
+  <si>
+    <t>maihuidong@edaijia.cn</t>
+  </si>
+  <si>
+    <t>574879522@qq.com</t>
   </si>
   <si>
     <t>shenkunyi2007@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stonejy@stonejy.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryan.wu@byt-xmn.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mandy@gowinstone.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maihuidong@edaijia.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>574879522@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2218813916@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1453301828@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1303935176@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>marble_400@yahoo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liujm@shenghui56.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jiexiang77@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chris@cng.cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YAL6331@HOTMAIL.COM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2260311461@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2659611658@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>525817017@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>695444280@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57568280@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jack@fbtrip.me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>alex@fbtrip.me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhenghanbi@cmbc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>491306856@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>granit.mramor@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>caijinxing1973@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>swanhotel@swanhotel.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149823245@qq.com</t>
   </si>
   <si>
     <t>232858531@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149823245@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>linrencong114@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sunjianghe@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jisanmarble@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>971325309@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>seasalsm2@evergrowtrans.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>124638456@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>383718841@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tracy.le@wellfast.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13850767979@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yongfanggg@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>116429754@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>626002306@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>119388418@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>644834980@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18030282688@189.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hualongshuzhibu@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>richard@fei-yan.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cqs1717@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tina.pan@wyndhamjinjiang.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huangyong_1982@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tradeinfor@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zh_1484@zhanhong.sina.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>414120911@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xujianhong@cmbc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>853843083@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lrhu@xmhx.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>g.stevens88@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jt_mosaic@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhangny@nanchu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>herbang@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>761620589@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xmanld@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liling@noahwm.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2985199177@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3159734328@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>48381430@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>826068794@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xinhuas@sina.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scan3d3@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fangshidan@cmbc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1776429779@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>377453891@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhong_jianxian@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jason8111911@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guote_auto@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zengtj@nanchu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jiangwei14@cmbc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rebecca@risingfortunetrading.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>279134710@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>carlos.cao@wyndhamgrp.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>brian@casanovastone.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1060726725@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>royhgc@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>randi@passionart.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yunfu.wu@controlway.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baida88@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27465290@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>774378091@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wubonick@sina.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>602479498@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dela-alias@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cztzfz@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>874211624@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhangwqa@jdcapital.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huihui.lin@zhihuanyun.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mingxia.chen@zhihuanyun.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xuanlong.wxl@alibaba-inc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yhxf@baishafire.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>don.zhang@whitedolphinhotel.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>susan@win-trans.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>675210701@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2581316276@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>278940692@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>767887407@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hongweijie@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hongweijie@egian.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xinlvdao@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>183397366@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16600126@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1028208460@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ivan@honor01.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8957032@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>info@icehockey.asia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>914186729@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>188004886@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>perusi.c@tenax.it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chenjy@yuhong.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lgkyj@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chenxy@mzaybox.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huaxing_lzy@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chentaifeng1981@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>519773121@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>897939139@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>442684194@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rena.chen@dragonair.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hdaxrc@cathaypacific.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>marcom1@hotelindigoxiamen.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1440436973@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>181966577@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>649330378@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1395010633@139.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sale3.xm@mail1.tvlgroups.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>seacs3@evergrowtrans.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lwchen@xmu.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shmx30@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chengsc@sicongproject.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cs1@awsxm.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chiyuguanyinshan@chiyubank.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>104121553@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>414509263@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27465290@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12476225@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales@newsuccesscar.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales@yonghui-machine.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>linjinkun5389@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales@greatst.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhangb@xmhxtz.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sealand99@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zhinuo002@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sell@chinasanjin.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sophia-zhang@pingye.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3243602843@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liu166267@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>crystxyou@hsbc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jack.he@expo-linking.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liujianjing@piratesmedia.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xgly2950800@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1244805863@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>78564843@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>martinma@savresort-xiamen.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gaoxy@expolinking.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0118@rctea.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2691039050@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cui jb@haosenplastic.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>405297268@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nbonyanpour@beaulleuasla.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -973,20 +738,364 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -996,50 +1105,345 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1327,87 +1731,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="E11:G17"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1418,7 +1865,7 @@
         <v>15080330666</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1426,7 +1873,7 @@
         <v>13585645070</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1434,7 +1881,7 @@
         <v>15559001613</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1442,7 +1889,7 @@
         <v>18616267398</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1450,7 +1897,7 @@
         <v>18060060637</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1458,7 +1905,7 @@
         <v>18620238538</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1466,7 +1913,7 @@
         <v>18650537168</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1474,7 +1921,7 @@
         <v>13907015912</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1482,7 +1929,7 @@
         <v>13631376968</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1490,7 +1937,7 @@
         <v>13950156122</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1498,7 +1945,7 @@
         <v>13860653366</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1506,7 +1953,7 @@
         <v>13355784299</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1514,7 +1961,7 @@
         <v>13774653855</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1522,7 +1969,7 @@
         <v>13599529061</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1530,7 +1977,7 @@
         <v>13646014564</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1538,7 +1985,7 @@
         <v>13549581988</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1546,7 +1993,7 @@
         <v>13789124697</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1554,15 +2001,15 @@
         <v>13799756117</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18153873670</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1570,7 +2017,7 @@
         <v>18373550972</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1578,7 +2025,7 @@
         <v>18711532672</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1586,7 +2033,7 @@
         <v>15059598136</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1594,7 +2041,7 @@
         <v>13607989994</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1602,7 +2049,7 @@
         <v>13805959285</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1610,7 +2057,7 @@
         <v>15026528444</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1618,7 +2065,7 @@
         <v>13779934631</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1626,7 +2073,7 @@
         <v>13788855583</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1634,7 +2081,7 @@
         <v>15559596666</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1642,7 +2089,7 @@
         <v>15959995908</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1650,7 +2097,7 @@
         <v>13599836999</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1658,7 +2105,7 @@
         <v>15711565850</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1666,7 +2113,7 @@
         <v>13569214509</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1674,7 +2121,7 @@
         <v>13306020204</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1682,7 +2129,7 @@
         <v>13906009090</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1690,7 +2137,7 @@
         <v>18950112989</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1698,7 +2145,7 @@
         <v>13860192989</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1706,7 +2153,7 @@
         <v>18046227181</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1714,7 +2161,7 @@
         <v>15980889465</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1722,7 +2169,7 @@
         <v>18050671919</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1730,7 +2177,7 @@
         <v>15060313375</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1738,7 +2185,7 @@
         <v>13823512399</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1746,7 +2193,7 @@
         <v>13392188218</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1754,7 +2201,7 @@
         <v>18801076997</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1762,7 +2209,7 @@
         <v>13905983806</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1770,7 +2217,7 @@
         <v>13603718423</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1778,7 +2225,7 @@
         <v>18659286616</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1786,7 +2233,7 @@
         <v>18950077171</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1794,7 +2241,7 @@
         <v>17750597745</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1802,7 +2249,7 @@
         <v>13599514799</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1810,7 +2257,7 @@
         <v>18960244206</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1818,7 +2265,7 @@
         <v>18060029595</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1826,7 +2273,7 @@
         <v>18650120841</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1834,7 +2281,7 @@
         <v>13276022567</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1842,7 +2289,7 @@
         <v>13906053635</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1850,7 +2297,7 @@
         <v>15860789225</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1898,7 +2345,7 @@
         <v>17705082722</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1906,7 +2353,7 @@
         <v>13606019650</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1914,7 +2361,7 @@
         <v>13015950097</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1922,7 +2369,7 @@
         <v>13395025648</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1930,7 +2377,7 @@
         <v>18350280120</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1938,7 +2385,7 @@
         <v>13358397971</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1946,7 +2393,7 @@
         <v>13859202656</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1954,7 +2401,7 @@
         <v>13358371288</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1962,7 +2409,7 @@
         <v>13600962405</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1970,7 +2417,7 @@
         <v>15959206012</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1978,7 +2425,7 @@
         <v>13806070222</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1986,7 +2433,7 @@
         <v>18005921270</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1994,7 +2441,7 @@
         <v>13995944555</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2002,7 +2449,7 @@
         <v>13615941777</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2010,7 +2457,7 @@
         <v>18060907755</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2018,7 +2465,7 @@
         <v>13328886510</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2026,7 +2473,7 @@
         <v>18759259915</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2034,7 +2481,7 @@
         <v>13850042219</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2042,7 +2489,7 @@
         <v>15606096669</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2050,7 +2497,7 @@
         <v>13358390816</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2058,7 +2505,7 @@
         <v>13696991090</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2074,7 +2521,7 @@
         <v>13960335033</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2082,7 +2529,7 @@
         <v>15980463339</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2090,7 +2537,7 @@
         <v>15880806979</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2098,7 +2545,7 @@
         <v>13950052037</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2106,7 +2553,7 @@
         <v>13959220231</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2114,7 +2561,7 @@
         <v>18850561854</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2122,7 +2569,7 @@
         <v>13959266476</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2130,7 +2577,7 @@
         <v>13003970480</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2138,7 +2585,7 @@
         <v>13501270265</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2146,7 +2593,7 @@
         <v>13176599999</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2154,7 +2601,7 @@
         <v>18005921175</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2162,7 +2609,7 @@
         <v>13959267831</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2170,7 +2617,7 @@
         <v>13806071900</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2178,7 +2625,7 @@
         <v>18259493400</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2186,7 +2633,7 @@
         <v>15260861118</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2194,7 +2641,7 @@
         <v>15906091929</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2202,7 +2649,7 @@
         <v>13703292698</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2210,7 +2657,7 @@
         <v>13850098678</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2218,7 +2665,7 @@
         <v>13506020642</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2226,7 +2673,7 @@
         <v>13666007006</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2234,7 +2681,7 @@
         <v>13599545179</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2242,7 +2689,7 @@
         <v>13675578299</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2250,7 +2697,7 @@
         <v>13695572229</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2258,7 +2705,7 @@
         <v>15960208909</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2266,7 +2713,7 @@
         <v>18750495111</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2274,7 +2721,7 @@
         <v>15260219670</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2282,7 +2729,7 @@
         <v>18950195896</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2290,7 +2737,7 @@
         <v>18059268896</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2298,7 +2745,7 @@
         <v>13842711107</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2306,7 +2753,7 @@
         <v>13929904798</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2314,7 +2761,7 @@
         <v>13850584550</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2322,7 +2769,7 @@
         <v>18005921074</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2330,7 +2777,7 @@
         <v>18059251212</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2338,7 +2785,7 @@
         <v>15913087886</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2346,7 +2793,7 @@
         <v>13435599233</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2354,7 +2801,7 @@
         <v>13806035097</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2362,7 +2809,7 @@
         <v>13306035097</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2370,7 +2817,7 @@
         <v>13960301223</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2378,7 +2825,7 @@
         <v>13265032722</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2386,7 +2833,7 @@
         <v>13660794577</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2394,7 +2841,7 @@
         <v>15980922710</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2402,7 +2849,7 @@
         <v>13255984742</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2410,7 +2857,7 @@
         <v>15980849871</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2418,7 +2865,7 @@
         <v>13799680959</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2426,7 +2873,7 @@
         <v>13509998011</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2434,7 +2881,7 @@
         <v>13537900806</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2442,7 +2889,7 @@
         <v>13235087035</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2450,7 +2897,7 @@
         <v>13123282528</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2458,7 +2905,7 @@
         <v>18250827806</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2466,7 +2913,7 @@
         <v>13808520650</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2474,7 +2921,7 @@
         <v>13255980075</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2482,7 +2929,7 @@
         <v>13779957514</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2490,7 +2937,7 @@
         <v>13489241169</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2498,7 +2945,7 @@
         <v>18659068318</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2506,7 +2953,7 @@
         <v>13860169491</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2514,7 +2961,7 @@
         <v>13665958677</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2522,7 +2969,7 @@
         <v>13779991051</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2530,7 +2977,7 @@
         <v>15960728760</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2538,7 +2985,7 @@
         <v>18965877729</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2546,7 +2993,7 @@
         <v>18659801586</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2554,7 +3001,7 @@
         <v>18876388829</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2562,7 +3009,7 @@
         <v>13809891211</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2570,7 +3017,7 @@
         <v>13606066114</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2578,7 +3025,7 @@
         <v>13696958580</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2586,7 +3033,7 @@
         <v>18150511669</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2594,7 +3041,7 @@
         <v>15860484908</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2602,7 +3049,7 @@
         <v>13003995330</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2610,7 +3057,7 @@
         <v>18050020686</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2618,7 +3065,7 @@
         <v>13806017409</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2626,7 +3073,7 @@
         <v>15980336959</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2634,7 +3081,7 @@
         <v>13666056667</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2642,7 +3089,7 @@
         <v>15159226894</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2650,7 +3097,7 @@
         <v>13285911299</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2658,7 +3105,7 @@
         <v>15111518886</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2666,7 +3113,7 @@
         <v>18760673638</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2674,7 +3121,7 @@
         <v>18059236971</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2682,7 +3129,7 @@
         <v>13850767979</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2690,7 +3137,7 @@
         <v>13475482508</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2698,7 +3145,7 @@
         <v>15859573859</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2706,7 +3153,7 @@
         <v>13003916562</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2714,7 +3161,7 @@
         <v>15005001782</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2722,7 +3169,7 @@
         <v>15505957733</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2730,7 +3177,7 @@
         <v>13328788555</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2738,7 +3185,7 @@
         <v>18030282688</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2746,7 +3193,7 @@
         <v>18659819900</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2754,7 +3201,7 @@
         <v>15860071131</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2762,7 +3209,7 @@
         <v>15959862196</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2770,7 +3217,7 @@
         <v>13799388395</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2778,7 +3225,7 @@
         <v>13904891298</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2786,7 +3233,7 @@
         <v>13799892878</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2794,7 +3241,7 @@
         <v>13705359869</v>
       </c>
       <c r="B174" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2802,7 +3249,7 @@
         <v>18660057787</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2810,7 +3257,7 @@
         <v>13997977700</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2818,7 +3265,7 @@
         <v>18150506919</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2826,7 +3273,7 @@
         <v>13677971831</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2834,7 +3281,7 @@
         <v>13030847813</v>
       </c>
       <c r="B179" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2842,7 +3289,7 @@
         <v>13805951484</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2850,7 +3297,7 @@
         <v>18650007559</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2858,7 +3305,7 @@
         <v>13559201127</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2866,7 +3313,7 @@
         <v>18605001817</v>
       </c>
       <c r="B183" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2874,7 +3321,7 @@
         <v>13696981263</v>
       </c>
       <c r="B184" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2882,7 +3329,7 @@
         <v>13860131988</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2890,7 +3337,7 @@
         <v>18659260877</v>
       </c>
       <c r="B186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2898,7 +3345,7 @@
         <v>13772454669</v>
       </c>
       <c r="B187" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2906,7 +3353,7 @@
         <v>18250892958</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2914,7 +3361,7 @@
         <v>18928322383</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2922,7 +3369,7 @@
         <v>13720005305</v>
       </c>
       <c r="B190" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2930,7 +3377,7 @@
         <v>13400650823</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2938,7 +3385,7 @@
         <v>13811473216</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2946,7 +3393,7 @@
         <v>15160093724</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2954,7 +3401,7 @@
         <v>18030129837</v>
       </c>
       <c r="B194" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2962,7 +3409,7 @@
         <v>15980813247</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3165,22 +3612,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:1">
       <c r="A221">
         <v>13701427171</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:1">
       <c r="A222">
         <v>13905018008</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:1">
       <c r="A223">
         <v>13588279630</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:1">
       <c r="A224">
         <v>18060966896</v>
       </c>
@@ -3916,24 +4363,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>